--- a/plantillas/AnalisisRazonado.xlsx
+++ b/plantillas/AnalisisRazonado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\evaluacion\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F2B81-30A4-48F0-A8D6-C6FFC77AB373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A502E92-7407-4C0E-ABC3-235DBC4A105B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="260">
   <si>
     <t>Emp:</t>
   </si>
@@ -479,15 +479,9 @@
     <t xml:space="preserve">    Activo a Patrimonio</t>
   </si>
   <si>
-    <t>Enfoque multidimensional</t>
-  </si>
-  <si>
     <t>Método Altman (z)</t>
   </si>
   <si>
-    <t>Interpretación Finaciamiento e Inversion</t>
-  </si>
-  <si>
     <t>Activo corriente</t>
   </si>
   <si>
@@ -807,6 +801,15 @@
   </si>
   <si>
     <t>Equity</t>
+  </si>
+  <si>
+    <t>Indice de Prueba de Acido</t>
+  </si>
+  <si>
+    <t>Predictor de Quiebra</t>
+  </si>
+  <si>
+    <t>Interpretación Financiamiento e Inversión</t>
   </si>
 </sst>
 </file>
@@ -1302,6 +1305,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1309,12 +1318,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,11 +1335,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,8 +1344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,10 +1737,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="162"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1777,10 +1780,10 @@
     </row>
     <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135"/>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="161"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1997,10 +2000,10 @@
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="135"/>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="164"/>
+      <c r="C20" s="161"/>
       <c r="D20" s="12">
         <f>SUM(D9:D19)</f>
         <v>0</v>
@@ -2024,10 +2027,10 @@
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="135"/>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="163"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -2266,10 +2269,10 @@
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="135"/>
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="164"/>
+      <c r="C33" s="161"/>
       <c r="D33" s="12">
         <f>SUM(D21:D32)</f>
         <v>0</v>
@@ -2293,10 +2296,10 @@
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="135"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="164"/>
+      <c r="C34" s="161"/>
       <c r="D34" s="15">
         <f>+D20+D33</f>
         <v>0</v>
@@ -2365,10 +2368,10 @@
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="135"/>
-      <c r="B38" s="160" t="s">
+      <c r="B38" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="161"/>
+      <c r="C38" s="163"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2541,10 +2544,10 @@
     </row>
     <row r="47" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="135"/>
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="164"/>
+      <c r="C47" s="161"/>
       <c r="D47" s="12">
         <f>SUM(D38:D46)</f>
         <v>0</v>
@@ -2568,10 +2571,10 @@
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="135"/>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="161"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -2722,10 +2725,10 @@
     </row>
     <row r="56" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="135"/>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="164"/>
+      <c r="C56" s="161"/>
       <c r="D56" s="12">
         <f>SUM(D48:D55)</f>
         <v>0</v>
@@ -2749,10 +2752,10 @@
     </row>
     <row r="57" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="135"/>
-      <c r="B57" s="160" t="s">
+      <c r="B57" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="161"/>
+      <c r="C57" s="163"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -2859,10 +2862,10 @@
     </row>
     <row r="63" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="135"/>
-      <c r="B63" s="163" t="s">
+      <c r="B63" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="164"/>
+      <c r="C63" s="161"/>
       <c r="D63" s="12">
         <f>SUM(D57:D62)</f>
         <v>0</v>
@@ -2886,10 +2889,10 @@
     </row>
     <row r="64" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="135"/>
-      <c r="B64" s="163" t="s">
+      <c r="B64" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="164"/>
+      <c r="C64" s="161"/>
       <c r="D64" s="15">
         <f>+D47+D56+D63</f>
         <v>0</v>
@@ -2974,12 +2977,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B38:C38"/>
@@ -2988,6 +2985,12 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Advertencia" error="Sólo debe ingresar números positivos." sqref="D10:H18 D58:H58 D49:H54 D39:H45 D22:H31" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3636,7 +3639,7 @@
   <dimension ref="B1:K56"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4648,8 +4651,8 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:E4"/>
+      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4666,51 +4669,51 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="162" t="str">
+      <c r="C1" s="164" t="str">
         <f>+Balance!C1</f>
         <v>Mi empresa</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
     </row>
     <row r="2" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="162" t="str">
+      <c r="C2" s="164" t="str">
         <f>+Balance!C2</f>
         <v>Aquí se anota el identificador de la empresa</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
     </row>
     <row r="3" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="162" t="str">
+      <c r="C3" s="164" t="str">
         <f>+Balance!C3</f>
         <v>Aquí se anota la direccion de la empresa</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
     </row>
     <row r="4" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="162" t="str">
+      <c r="C4" s="164" t="str">
         <f>+Balance!C4</f>
         <v>CLP</v>
       </c>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
     </row>
     <row r="6" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="162"/>
+      <c r="C6" s="164"/>
     </row>
     <row r="8" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
@@ -4747,7 +4750,7 @@
       <c r="B9" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="161"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="159"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -4789,7 +4792,7 @@
       <c r="A11" s="56"/>
       <c r="B11" s="58"/>
       <c r="C11" s="53" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>117</v>
@@ -5679,7 +5682,7 @@
     <row r="48" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="56"/>
       <c r="B48" s="167" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C48" s="168"/>
       <c r="D48" s="151"/>
@@ -5693,7 +5696,7 @@
       <c r="A49" s="56"/>
       <c r="B49" s="58"/>
       <c r="C49" s="135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="55" t="s">
         <v>117</v>
@@ -5735,7 +5738,7 @@
     <row r="51" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="56"/>
       <c r="B51" s="167" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="C51" s="168"/>
       <c r="D51" s="151"/>
@@ -5749,7 +5752,7 @@
       <c r="A52" s="56"/>
       <c r="B52" s="58"/>
       <c r="C52" s="135" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="152" t="s">
         <v>127</v>
@@ -5779,7 +5782,7 @@
       <c r="A53" s="56"/>
       <c r="B53" s="58"/>
       <c r="C53" s="135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="152" t="s">
         <v>127</v>
@@ -5809,7 +5812,7 @@
       <c r="A54" s="56"/>
       <c r="B54" s="58"/>
       <c r="C54" s="137" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" s="153" t="s">
         <v>127</v>
@@ -5852,7 +5855,7 @@
       <c r="A56" s="56"/>
       <c r="B56" s="58"/>
       <c r="C56" s="135" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D56" s="152" t="s">
         <v>127</v>
@@ -5882,7 +5885,7 @@
       <c r="A57" s="56"/>
       <c r="B57" s="58"/>
       <c r="C57" s="135" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D57" s="152" t="s">
         <v>127</v>
@@ -5912,7 +5915,7 @@
       <c r="A58" s="56"/>
       <c r="B58" s="58"/>
       <c r="C58" s="135" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D58" s="152" t="s">
         <v>127</v>
@@ -5942,7 +5945,7 @@
       <c r="A59" s="56"/>
       <c r="B59" s="58"/>
       <c r="C59" s="137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D59" s="153" t="s">
         <v>127</v>
@@ -5985,7 +5988,7 @@
       <c r="A61" s="56"/>
       <c r="B61" s="58"/>
       <c r="C61" s="135" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D61" s="152" t="s">
         <v>127</v>
@@ -6015,7 +6018,7 @@
       <c r="A62" s="56"/>
       <c r="B62" s="58"/>
       <c r="C62" s="135" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" s="152" t="s">
         <v>127</v>
@@ -6045,7 +6048,7 @@
       <c r="A63" s="56"/>
       <c r="B63" s="58"/>
       <c r="C63" s="135" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D63" s="152" t="s">
         <v>127</v>
@@ -6085,11 +6088,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B9:C9"/>
@@ -6097,6 +6095,11 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <pageMargins left="0.19685039370078999" right="0.19685039370078999" top="0.19685039370078999" bottom="0.19685039370078999" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="82" orientation="portrait"/>
@@ -6171,7 +6174,7 @@
     </row>
     <row r="6" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -6179,7 +6182,7 @@
     </row>
     <row r="8" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="131" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="131" t="s">
         <v>115</v>
@@ -6221,10 +6224,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="172" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="172"/>
+      <c r="C11" s="171" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="171"/>
       <c r="E11" s="36">
         <f>+Balance!D20</f>
         <v>0</v>
@@ -6247,10 +6250,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="173" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="173"/>
+      <c r="C12" s="172" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="172"/>
       <c r="E12" s="37">
         <f>+Balance!D47</f>
         <v>0</v>
@@ -6297,7 +6300,7 @@
     </row>
     <row r="35" spans="3:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -6331,10 +6334,10 @@
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="172" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="172"/>
+      <c r="C46" s="171" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="171"/>
       <c r="E46" s="36">
         <f>+Balance!D20-Balance!D15-Balance!D16</f>
         <v>0</v>
@@ -6357,10 +6360,10 @@
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="173" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="173"/>
+      <c r="C47" s="172" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="172"/>
       <c r="E47" s="37">
         <f>+Balance!D47</f>
         <v>0</v>
@@ -6554,7 +6557,7 @@
     </row>
     <row r="70" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -6586,10 +6589,10 @@
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="172" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79" s="172"/>
+      <c r="C79" s="171" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="171"/>
       <c r="E79" s="36">
         <f>+Balance!D10+Balance!D11</f>
         <v>0</v>
@@ -6612,10 +6615,10 @@
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="173" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" s="173"/>
+      <c r="C80" s="172" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="172"/>
       <c r="E80" s="37">
         <f>+Balance!D47</f>
         <v>0</v>
@@ -6808,7 +6811,7 @@
     </row>
     <row r="103" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -6840,10 +6843,10 @@
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="173" t="s">
-        <v>169</v>
-      </c>
-      <c r="D112" s="173"/>
+      <c r="C112" s="172" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" s="172"/>
       <c r="E112" s="37">
         <f>+Balance!D20-Balance!D47</f>
         <v>0</v>
@@ -6866,8 +6869,8 @@
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="173"/>
-      <c r="D113" s="173"/>
+      <c r="C113" s="172"/>
+      <c r="D113" s="172"/>
       <c r="E113" s="37"/>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -6883,7 +6886,7 @@
     </row>
     <row r="136" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -6915,10 +6918,10 @@
       </c>
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C145" s="172" t="s">
-        <v>170</v>
-      </c>
-      <c r="D145" s="172"/>
+      <c r="C145" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" s="171"/>
       <c r="E145" s="36">
         <f>-Resultado!D11-Resultado!D15-Resultado!D25</f>
         <v>0</v>
@@ -6941,10 +6944,10 @@
       </c>
     </row>
     <row r="146" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C146" s="173">
+      <c r="C146" s="172">
         <v>365</v>
       </c>
-      <c r="D146" s="173"/>
+      <c r="D146" s="172"/>
       <c r="E146" s="37">
         <v>365</v>
       </c>
@@ -6985,7 +6988,7 @@
     </row>
     <row r="170" spans="3:4" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="3:4" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -7017,10 +7020,10 @@
       </c>
     </row>
     <row r="178" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C178" s="172" t="s">
-        <v>171</v>
-      </c>
-      <c r="D178" s="172"/>
+      <c r="C178" s="171" t="s">
+        <v>169</v>
+      </c>
+      <c r="D178" s="171"/>
       <c r="E178" s="36">
         <f>+Balance!D10+Balance!D15</f>
         <v>0</v>
@@ -7043,10 +7046,10 @@
       </c>
     </row>
     <row r="179" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C179" s="173" t="s">
-        <v>172</v>
-      </c>
-      <c r="D179" s="173"/>
+      <c r="C179" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="D179" s="172"/>
       <c r="E179" s="37">
         <f>+E147</f>
         <v>0</v>
@@ -7092,12 +7095,12 @@
     </row>
     <row r="202" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="131" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B207" s="131" t="s">
         <v>125</v>
@@ -7105,7 +7108,7 @@
     </row>
     <row r="208" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -7131,10 +7134,10 @@
       </c>
     </row>
     <row r="210" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C210" s="172" t="s">
-        <v>157</v>
-      </c>
-      <c r="D210" s="172"/>
+      <c r="C210" s="171" t="s">
+        <v>155</v>
+      </c>
+      <c r="D210" s="171"/>
       <c r="E210" s="36">
         <f>+Balance!D63</f>
         <v>0</v>
@@ -7157,10 +7160,10 @@
       </c>
     </row>
     <row r="211" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C211" s="173" t="s">
+      <c r="C211" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="D211" s="173"/>
+      <c r="D211" s="172"/>
       <c r="E211" s="37">
         <f>+Balance!D47+Balance!D56</f>
         <v>0</v>
@@ -7206,7 +7209,7 @@
     </row>
     <row r="234" spans="3:4" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="238" spans="3:4" x14ac:dyDescent="0.25">
@@ -7249,10 +7252,10 @@
       </c>
     </row>
     <row r="248" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C248" s="172" t="s">
+      <c r="C248" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="D248" s="172"/>
+      <c r="D248" s="171"/>
       <c r="E248" s="36">
         <f>+Balance!D47+Balance!D56</f>
         <v>0</v>
@@ -7275,10 +7278,10 @@
       </c>
     </row>
     <row r="249" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C249" s="173" t="s">
-        <v>176</v>
-      </c>
-      <c r="D249" s="173"/>
+      <c r="C249" s="172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D249" s="172"/>
       <c r="E249" s="37">
         <f>+Balance!D34</f>
         <v>0</v>
@@ -7324,7 +7327,7 @@
     </row>
     <row r="272" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="281" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -7355,10 +7358,10 @@
       </c>
     </row>
     <row r="283" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C283" s="172" t="s">
-        <v>176</v>
-      </c>
-      <c r="D283" s="172"/>
+      <c r="C283" s="171" t="s">
+        <v>174</v>
+      </c>
+      <c r="D283" s="171"/>
       <c r="E283" s="36">
         <f>+Balance!D34</f>
         <v>0</v>
@@ -7381,10 +7384,10 @@
       </c>
     </row>
     <row r="284" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C284" s="173" t="s">
-        <v>157</v>
-      </c>
-      <c r="D284" s="173"/>
+      <c r="C284" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="D284" s="172"/>
       <c r="E284" s="37">
         <f>+Balance!D63</f>
         <v>0</v>
@@ -7430,7 +7433,7 @@
     </row>
     <row r="307" spans="3:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="308" spans="3:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -7475,10 +7478,10 @@
       </c>
     </row>
     <row r="316" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C316" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="D316" s="172"/>
+      <c r="C316" s="171" t="s">
+        <v>175</v>
+      </c>
+      <c r="D316" s="171"/>
       <c r="E316" s="36">
         <f>+Balance!D40</f>
         <v>0</v>
@@ -7501,10 +7504,10 @@
       </c>
     </row>
     <row r="317" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C317" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="D317" s="173"/>
+      <c r="C317" s="172" t="s">
+        <v>176</v>
+      </c>
+      <c r="D317" s="172"/>
       <c r="E317" s="37">
         <f>+Balance!D11</f>
         <v>0</v>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="340" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="344" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -7584,10 +7587,10 @@
       </c>
     </row>
     <row r="346" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C346" s="172" t="s">
-        <v>179</v>
-      </c>
-      <c r="D346" s="172"/>
+      <c r="C346" s="171" t="s">
+        <v>177</v>
+      </c>
+      <c r="D346" s="171"/>
       <c r="E346" s="36">
         <f>+Resultado!D13+Resultado!D19</f>
         <v>0</v>
@@ -7610,10 +7613,10 @@
       </c>
     </row>
     <row r="347" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C347" s="173" t="s">
-        <v>180</v>
-      </c>
-      <c r="D347" s="173"/>
+      <c r="C347" s="172" t="s">
+        <v>178</v>
+      </c>
+      <c r="D347" s="172"/>
       <c r="E347" s="37">
         <f>-Resultado!D25</f>
         <v>0</v>
@@ -7659,7 +7662,7 @@
     </row>
     <row r="370" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -7673,15 +7676,15 @@
     </row>
     <row r="374" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="131" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B374" s="131" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -7707,10 +7710,10 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C377" s="172" t="s">
-        <v>184</v>
-      </c>
-      <c r="D377" s="172"/>
+      <c r="C377" s="171" t="s">
+        <v>182</v>
+      </c>
+      <c r="D377" s="171"/>
       <c r="E377" s="43">
         <f>+Resultado!D10</f>
         <v>0</v>
@@ -7733,10 +7736,10 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C378" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="D378" s="173"/>
+      <c r="C378" s="172" t="s">
+        <v>176</v>
+      </c>
+      <c r="D378" s="172"/>
       <c r="E378" s="37">
         <f>+Balance!D11</f>
         <v>0</v>
@@ -7782,12 +7785,12 @@
     </row>
     <row r="401" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="410" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="411" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -7813,10 +7816,10 @@
       </c>
     </row>
     <row r="412" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C412" s="172" t="s">
-        <v>186</v>
-      </c>
-      <c r="D412" s="172"/>
+      <c r="C412" s="171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D412" s="171"/>
       <c r="E412" s="36">
         <f>-Resultado!D11</f>
         <v>0</v>
@@ -7839,10 +7842,10 @@
       </c>
     </row>
     <row r="413" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C413" s="173" t="s">
-        <v>187</v>
-      </c>
-      <c r="D413" s="173"/>
+      <c r="C413" s="172" t="s">
+        <v>185</v>
+      </c>
+      <c r="D413" s="172"/>
       <c r="E413" s="37">
         <f>+Balance!D11</f>
         <v>0</v>
@@ -7888,12 +7891,12 @@
     </row>
     <row r="436" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="444" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="445" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -7919,10 +7922,10 @@
       </c>
     </row>
     <row r="446" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C446" s="172" t="s">
-        <v>186</v>
-      </c>
-      <c r="D446" s="172"/>
+      <c r="C446" s="171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D446" s="171"/>
       <c r="E446" s="36">
         <f>-Resultado!D11</f>
         <v>0</v>
@@ -7945,10 +7948,10 @@
       </c>
     </row>
     <row r="447" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C447" s="173" t="s">
-        <v>189</v>
-      </c>
-      <c r="D447" s="173"/>
+      <c r="C447" s="172" t="s">
+        <v>187</v>
+      </c>
+      <c r="D447" s="172"/>
       <c r="E447" s="37">
         <f>+Balance!D15+Balance!D16</f>
         <v>0</v>
@@ -7994,12 +7997,12 @@
     </row>
     <row r="470" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="476" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="477" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -8025,10 +8028,10 @@
       </c>
     </row>
     <row r="478" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C478" s="172" t="s">
-        <v>184</v>
-      </c>
-      <c r="D478" s="172"/>
+      <c r="C478" s="171" t="s">
+        <v>182</v>
+      </c>
+      <c r="D478" s="171"/>
       <c r="E478" s="36">
         <f>+Resultado!D10</f>
         <v>0</v>
@@ -8051,10 +8054,10 @@
       </c>
     </row>
     <row r="479" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C479" s="173" t="s">
-        <v>176</v>
-      </c>
-      <c r="D479" s="173"/>
+      <c r="C479" s="172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D479" s="172"/>
       <c r="E479" s="37">
         <f>+Balance!D34</f>
         <v>0</v>
@@ -8100,12 +8103,12 @@
     </row>
     <row r="502" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="514" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A514" s="131" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B514" s="131" t="s">
         <v>132</v>
@@ -8139,10 +8142,10 @@
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C517" s="172">
+      <c r="C517" s="171">
         <v>365</v>
       </c>
-      <c r="D517" s="172"/>
+      <c r="D517" s="171"/>
       <c r="E517" s="36">
         <f>+C517</f>
         <v>365</v>
@@ -8165,10 +8168,10 @@
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C518" s="173" t="s">
-        <v>192</v>
-      </c>
-      <c r="D518" s="173"/>
+      <c r="C518" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="D518" s="172"/>
       <c r="E518" s="44" t="e">
         <f>+E379</f>
         <v>#DIV/0!</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="541" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="550" spans="3:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -8245,10 +8248,10 @@
       </c>
     </row>
     <row r="552" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C552" s="172">
+      <c r="C552" s="171">
         <v>365</v>
       </c>
-      <c r="D552" s="172"/>
+      <c r="D552" s="171"/>
       <c r="E552" s="36">
         <f>+C552</f>
         <v>365</v>
@@ -8271,10 +8274,10 @@
       </c>
     </row>
     <row r="553" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C553" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="D553" s="173"/>
+      <c r="C553" s="172" t="s">
+        <v>191</v>
+      </c>
+      <c r="D553" s="172"/>
       <c r="E553" s="44" t="e">
         <f>+E414</f>
         <v>#DIV/0!</v>
@@ -8321,7 +8324,7 @@
     </row>
     <row r="576" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="585" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -8352,10 +8355,10 @@
       </c>
     </row>
     <row r="587" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C587" s="172">
+      <c r="C587" s="171">
         <v>365</v>
       </c>
-      <c r="D587" s="172"/>
+      <c r="D587" s="171"/>
       <c r="E587" s="36">
         <f>+C587</f>
         <v>365</v>
@@ -8378,10 +8381,10 @@
       </c>
     </row>
     <row r="588" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C588" s="173" t="s">
-        <v>194</v>
-      </c>
-      <c r="D588" s="173"/>
+      <c r="C588" s="172" t="s">
+        <v>192</v>
+      </c>
+      <c r="D588" s="172"/>
       <c r="E588" s="44" t="e">
         <f>+E448</f>
         <v>#DIV/0!</v>
@@ -8427,12 +8430,12 @@
     </row>
     <row r="611" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="615" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="616" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -8459,7 +8462,7 @@
     </row>
     <row r="617" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C617" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E617" s="99" t="e">
         <f>+E589</f>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="621" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E621" s="98" t="e">
         <f>+E617+E618-E619</f>
@@ -8559,12 +8562,12 @@
     </row>
     <row r="645" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A652" s="131" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B652" s="131" t="s">
         <v>137</v>
@@ -8598,10 +8601,10 @@
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C655" s="172" t="s">
-        <v>199</v>
-      </c>
-      <c r="D655" s="172"/>
+      <c r="C655" s="171" t="s">
+        <v>197</v>
+      </c>
+      <c r="D655" s="171"/>
       <c r="E655" s="36">
         <f>+Resultado!D35</f>
         <v>0</v>
@@ -8624,10 +8627,10 @@
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C656" s="173" t="s">
-        <v>176</v>
-      </c>
-      <c r="D656" s="173"/>
+      <c r="C656" s="172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D656" s="172"/>
       <c r="E656" s="37">
         <f>+Balance!D34</f>
         <v>0</v>
@@ -8673,7 +8676,7 @@
     </row>
     <row r="679" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="685" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -8704,10 +8707,10 @@
       </c>
     </row>
     <row r="687" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C687" s="172" t="s">
-        <v>199</v>
-      </c>
-      <c r="D687" s="172"/>
+      <c r="C687" s="171" t="s">
+        <v>197</v>
+      </c>
+      <c r="D687" s="171"/>
       <c r="E687" s="36">
         <f>+Resultado!D35</f>
         <v>0</v>
@@ -8730,10 +8733,10 @@
       </c>
     </row>
     <row r="688" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C688" s="173" t="s">
-        <v>157</v>
-      </c>
-      <c r="D688" s="173"/>
+      <c r="C688" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="D688" s="172"/>
       <c r="E688" s="37">
         <f>+Balance!D63</f>
         <v>0</v>
@@ -8779,7 +8782,7 @@
     </row>
     <row r="711" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="718" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -8810,10 +8813,10 @@
       </c>
     </row>
     <row r="720" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C720" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="D720" s="172"/>
+      <c r="C720" s="171" t="s">
+        <v>198</v>
+      </c>
+      <c r="D720" s="171"/>
       <c r="E720" s="36">
         <f>+Resultado!D31</f>
         <v>0</v>
@@ -8836,10 +8839,10 @@
       </c>
     </row>
     <row r="721" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C721" s="173" t="s">
-        <v>201</v>
-      </c>
-      <c r="D721" s="173"/>
+      <c r="C721" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D721" s="172"/>
       <c r="E721" s="37">
         <f>+Balance!D34</f>
         <v>0</v>
@@ -8885,7 +8888,7 @@
     </row>
     <row r="744" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="753" spans="3:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -8916,10 +8919,10 @@
       </c>
     </row>
     <row r="755" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C755" s="172" t="s">
-        <v>202</v>
-      </c>
-      <c r="D755" s="172"/>
+      <c r="C755" s="171" t="s">
+        <v>200</v>
+      </c>
+      <c r="D755" s="171"/>
       <c r="E755" s="36">
         <f>+Resultado!D13</f>
         <v>0</v>
@@ -8942,10 +8945,10 @@
       </c>
     </row>
     <row r="756" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C756" s="173" t="s">
-        <v>184</v>
-      </c>
-      <c r="D756" s="173"/>
+      <c r="C756" s="172" t="s">
+        <v>182</v>
+      </c>
+      <c r="D756" s="172"/>
       <c r="E756" s="37">
         <f>+Resultado!D10</f>
         <v>0</v>
@@ -8992,7 +8995,7 @@
     </row>
     <row r="779" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="785" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -9023,10 +9026,10 @@
       </c>
     </row>
     <row r="787" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C787" s="172" t="s">
-        <v>203</v>
-      </c>
-      <c r="D787" s="172"/>
+      <c r="C787" s="171" t="s">
+        <v>201</v>
+      </c>
+      <c r="D787" s="171"/>
       <c r="E787" s="36">
         <f>+Resultado!D17</f>
         <v>0</v>
@@ -9049,10 +9052,10 @@
       </c>
     </row>
     <row r="788" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C788" s="173" t="s">
-        <v>184</v>
-      </c>
-      <c r="D788" s="173"/>
+      <c r="C788" s="172" t="s">
+        <v>182</v>
+      </c>
+      <c r="D788" s="172"/>
       <c r="E788" s="37">
         <f>+Resultado!D10</f>
         <v>0</v>
@@ -9098,7 +9101,7 @@
     </row>
     <row r="811" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="817" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -9129,10 +9132,10 @@
       </c>
     </row>
     <row r="819" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C819" s="172" t="s">
-        <v>199</v>
-      </c>
-      <c r="D819" s="172"/>
+      <c r="C819" s="171" t="s">
+        <v>197</v>
+      </c>
+      <c r="D819" s="171"/>
       <c r="E819" s="36">
         <f>+Resultado!D35</f>
         <v>0</v>
@@ -9155,10 +9158,10 @@
       </c>
     </row>
     <row r="820" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C820" s="173" t="s">
-        <v>184</v>
-      </c>
-      <c r="D820" s="173"/>
+      <c r="C820" s="172" t="s">
+        <v>182</v>
+      </c>
+      <c r="D820" s="172"/>
       <c r="E820" s="37">
         <f>+Resultado!D10</f>
         <v>0</v>
@@ -9204,12 +9207,12 @@
     </row>
     <row r="843" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="851" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="852" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -9240,10 +9243,10 @@
       </c>
     </row>
     <row r="854" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C854" s="174" t="s">
+      <c r="C854" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="D854" s="174"/>
+      <c r="D854" s="170"/>
       <c r="E854" s="47" t="e">
         <f>+E821</f>
         <v>#DIV/0!</v>
@@ -9276,10 +9279,10 @@
       <c r="I855" s="48"/>
     </row>
     <row r="856" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C856" s="174" t="s">
+      <c r="C856" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="D856" s="174"/>
+      <c r="D856" s="170"/>
       <c r="E856" s="49" t="e">
         <f>+E480</f>
         <v>#DIV/0!</v>
@@ -9312,10 +9315,10 @@
       <c r="I857" s="47"/>
     </row>
     <row r="858" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C858" s="174" t="s">
+      <c r="C858" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="D858" s="174"/>
+      <c r="D858" s="170"/>
       <c r="E858" s="49" t="e">
         <f>+E285</f>
         <v>#DIV/0!</v>
@@ -9406,12 +9409,12 @@
     </row>
     <row r="883" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="889" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="890" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -9437,20 +9440,20 @@
       </c>
     </row>
     <row r="891" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C891" s="172"/>
-      <c r="D891" s="172"/>
+      <c r="C891" s="171"/>
+      <c r="D891" s="171"/>
       <c r="E891" s="36"/>
       <c r="F891" s="36"/>
     </row>
     <row r="892" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C892" s="173"/>
-      <c r="D892" s="173"/>
+      <c r="C892" s="172"/>
+      <c r="D892" s="172"/>
       <c r="E892" s="37"/>
       <c r="F892" s="37"/>
     </row>
     <row r="893" spans="3:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E893" s="50" t="e">
         <f>1.2*E112/Balance!D34+1.4*SUM(Balance!D59:D60)/Balance!D34+3.3*(Resultado!D35-Resultado!D33-Resultado!D25)/Balance!D34+0.6*Balance!D63/(Balance!D47+Balance!D56)+1*Resultado!D10/Balance!D34</f>
@@ -9475,91 +9478,91 @@
     </row>
     <row r="915" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="922" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A922" s="131" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B922" s="131" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="924" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D924" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G924" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J924" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M924" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P924" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="925" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D925" s="170" t="str">
+      <c r="D925" s="173" t="str">
         <f>+Balance!D8</f>
         <v>Jun_16</v>
       </c>
-      <c r="E925" s="171"/>
-      <c r="G925" s="170" t="str">
+      <c r="E925" s="174"/>
+      <c r="G925" s="173" t="str">
         <f>+Balance!E8</f>
         <v>Jun17</v>
       </c>
-      <c r="H925" s="171"/>
-      <c r="J925" s="170" t="str">
+      <c r="H925" s="174"/>
+      <c r="J925" s="173" t="str">
         <f>+Balance!F8</f>
         <v>Jun18</v>
       </c>
-      <c r="K925" s="171"/>
-      <c r="M925" s="170" t="str">
+      <c r="K925" s="174"/>
+      <c r="M925" s="173" t="str">
         <f>+Balance!G8</f>
         <v>Jun19</v>
       </c>
-      <c r="N925" s="171"/>
-      <c r="P925" s="170" t="str">
+      <c r="N925" s="174"/>
+      <c r="P925" s="173" t="str">
         <f>+Balance!H8</f>
         <v>Jun20</v>
       </c>
-      <c r="Q925" s="171"/>
+      <c r="Q925" s="174"/>
     </row>
     <row r="926" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D926" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E926" s="80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G926" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H926" s="80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J926" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K926" s="80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M926" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N926" s="80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P926" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q926" s="80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="927" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -9630,34 +9633,34 @@
     </row>
     <row r="930" spans="3:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D930" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E930" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G930" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H930" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J930" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K930" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M930" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N930" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P930" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q930" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="931" spans="3:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -9728,34 +9731,34 @@
     </row>
     <row r="934" spans="3:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D934" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E934" s="106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G934" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H934" s="106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J934" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K934" s="106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M934" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N934" s="106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P934" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q934" s="106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="935" spans="3:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -9821,20 +9824,20 @@
     </row>
     <row r="939" spans="3:17" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="945" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A945" s="131" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B945" s="131" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="947" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D947" s="121"/>
       <c r="E947" s="140" t="str">
@@ -9856,7 +9859,7 @@
     </row>
     <row r="948" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E948" s="122">
         <f>+Flujo!D31</f>
@@ -9877,7 +9880,7 @@
     </row>
     <row r="949" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E949" s="122">
         <f>+Flujo!D38</f>
@@ -9898,7 +9901,7 @@
     </row>
     <row r="950" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E950" s="122">
         <f>+Flujo!D49</f>
@@ -9919,7 +9922,7 @@
     </row>
     <row r="951" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E951" s="122">
         <f>+Flujo!D51</f>
@@ -9940,7 +9943,7 @@
     </row>
     <row r="952" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="126" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E952" s="122">
         <f>+Flujo!D54</f>
@@ -9961,7 +9964,7 @@
     </row>
     <row r="953" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="126" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E953" s="127">
         <f>SUM(E948:E952)</f>
@@ -9982,35 +9985,32 @@
     </row>
     <row r="955" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="58">
-    <mergeCell ref="C858:D858"/>
-    <mergeCell ref="C891:D891"/>
-    <mergeCell ref="C892:D892"/>
-    <mergeCell ref="C755:D755"/>
-    <mergeCell ref="C756:D756"/>
-    <mergeCell ref="C819:D819"/>
-    <mergeCell ref="C820:D820"/>
-    <mergeCell ref="C854:D854"/>
-    <mergeCell ref="C856:D856"/>
-    <mergeCell ref="C787:D787"/>
-    <mergeCell ref="C788:D788"/>
-    <mergeCell ref="C721:D721"/>
-    <mergeCell ref="C517:D517"/>
-    <mergeCell ref="C518:D518"/>
-    <mergeCell ref="C552:D552"/>
-    <mergeCell ref="C553:D553"/>
-    <mergeCell ref="C587:D587"/>
-    <mergeCell ref="C588:D588"/>
-    <mergeCell ref="C655:D655"/>
-    <mergeCell ref="C656:D656"/>
-    <mergeCell ref="C687:D687"/>
-    <mergeCell ref="C688:D688"/>
-    <mergeCell ref="C720:D720"/>
+    <mergeCell ref="P925:Q925"/>
+    <mergeCell ref="D925:E925"/>
+    <mergeCell ref="G925:H925"/>
+    <mergeCell ref="J925:K925"/>
+    <mergeCell ref="M925:N925"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C249:D249"/>
     <mergeCell ref="C283:D283"/>
     <mergeCell ref="C479:D479"/>
@@ -10026,26 +10026,29 @@
     <mergeCell ref="C447:D447"/>
     <mergeCell ref="C478:D478"/>
     <mergeCell ref="C284:D284"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="P925:Q925"/>
-    <mergeCell ref="D925:E925"/>
-    <mergeCell ref="G925:H925"/>
-    <mergeCell ref="J925:K925"/>
-    <mergeCell ref="M925:N925"/>
+    <mergeCell ref="C721:D721"/>
+    <mergeCell ref="C517:D517"/>
+    <mergeCell ref="C518:D518"/>
+    <mergeCell ref="C552:D552"/>
+    <mergeCell ref="C553:D553"/>
+    <mergeCell ref="C587:D587"/>
+    <mergeCell ref="C588:D588"/>
+    <mergeCell ref="C655:D655"/>
+    <mergeCell ref="C656:D656"/>
+    <mergeCell ref="C687:D687"/>
+    <mergeCell ref="C688:D688"/>
+    <mergeCell ref="C720:D720"/>
+    <mergeCell ref="C858:D858"/>
+    <mergeCell ref="C891:D891"/>
+    <mergeCell ref="C892:D892"/>
+    <mergeCell ref="C755:D755"/>
+    <mergeCell ref="C756:D756"/>
+    <mergeCell ref="C819:D819"/>
+    <mergeCell ref="C820:D820"/>
+    <mergeCell ref="C854:D854"/>
+    <mergeCell ref="C856:D856"/>
+    <mergeCell ref="C787:D787"/>
+    <mergeCell ref="C788:D788"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10120,7 +10123,7 @@
     </row>
     <row r="6" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -10128,7 +10131,7 @@
     </row>
     <row r="8" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="129" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="142" t="str">
         <f>+Balance!D8</f>
@@ -10272,19 +10275,19 @@
       <c r="R10" s="30"/>
       <c r="S10" s="30"/>
       <c r="T10" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U10" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V10" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W10" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X10" s="91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
@@ -10329,19 +10332,19 @@
     </row>
     <row r="13" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N13" s="86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O13" s="86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P13" s="86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R13" s="87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S13" s="30"/>
       <c r="T13" s="30"/>
@@ -10351,36 +10354,36 @@
       <c r="X13" s="30"/>
       <c r="Y13" s="30"/>
       <c r="Z13" s="90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AA13" s="90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB13" s="90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC13" s="90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AD13" s="91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N14" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O14" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P14" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R14" s="89" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S14" s="30"/>
       <c r="Y14" s="30"/>
@@ -10436,84 +10439,84 @@
     </row>
     <row r="16" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I16" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J16" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K16" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L16" s="82" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S16" s="30"/>
       <c r="T16" s="86" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U16" s="86" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="V16" s="86" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="W16" s="86" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X16" s="87" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y16" s="30"/>
       <c r="Z16" s="90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AA16" s="90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB16" s="90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AC16" s="90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AD16" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I17" s="83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J17" s="83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L17" s="84" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S17" s="30"/>
       <c r="T17" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U17" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V17" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W17" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X17" s="89" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Y17" s="30"/>
       <c r="Z17" s="73">
@@ -10594,19 +10597,19 @@
     <row r="19" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="77"/>
       <c r="N19" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O19" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P19" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R19" s="91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S19" s="30"/>
       <c r="T19" s="30"/>
@@ -10616,19 +10619,19 @@
       <c r="X19" s="30"/>
       <c r="Y19" s="30"/>
       <c r="Z19" s="90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AA19" s="90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AB19" s="90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AC19" s="90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AD19" s="91" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -10701,7 +10704,7 @@
     </row>
     <row r="22" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" s="130" t="e">
         <f>+H18*H27</f>
@@ -10743,19 +10746,19 @@
     </row>
     <row r="23" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N23" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O23" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P23" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q23" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R23" s="91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S23" s="30"/>
       <c r="T23" s="30"/>
@@ -10799,19 +10802,19 @@
       <c r="X24" s="30"/>
       <c r="Y24" s="30"/>
       <c r="Z24" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AA24" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AB24" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AC24" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AD24" s="91" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -10850,19 +10853,19 @@
     </row>
     <row r="26" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H26" s="85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K26" s="85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L26" s="80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
@@ -10871,19 +10874,19 @@
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
       <c r="T26" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U26" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V26" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="W26" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X26" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y26" s="30"/>
       <c r="Z26" s="30"/>
@@ -10920,35 +10923,35 @@
       <c r="R27" s="30"/>
       <c r="S27" s="30"/>
       <c r="T27" s="88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U27" s="88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V27" s="88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="W27" s="88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="X27" s="89" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Y27" s="30"/>
       <c r="Z27" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AA27" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AB27" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC27" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AD27" s="91" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -11016,19 +11019,19 @@
     </row>
     <row r="30" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N30" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O30" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R30" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
@@ -11038,36 +11041,36 @@
       <c r="X30" s="30"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AA30" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AB30" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AC30" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AD30" s="72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N31" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O31" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P31" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R31" s="89" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S31" s="30"/>
       <c r="T31" s="30"/>
@@ -11155,19 +11158,19 @@
       <c r="R34" s="30"/>
       <c r="S34" s="30"/>
       <c r="T34" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U34" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V34" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="W34" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X34" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y34" s="30"/>
       <c r="Z34" s="30"/>
@@ -11181,19 +11184,19 @@
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
       <c r="T35" s="88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U35" s="88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V35" s="88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W35" s="88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X35" s="89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Y35" s="30"/>
       <c r="Z35" s="30"/>
@@ -11346,7 +11349,7 @@
     </row>
     <row r="8" spans="1:37" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="128" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="142" t="str">
         <f>+Balance!D8</f>
@@ -11370,7 +11373,7 @@
       </c>
       <c r="G8" s="143"/>
       <c r="H8" s="145" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I8" s="142" t="str">
         <f>+B8</f>
@@ -11526,19 +11529,19 @@
     <row r="11" spans="1:37" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z11" s="30"/>
       <c r="AA11" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AB11" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC11" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AD11" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AE11" s="91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF11" s="30"/>
       <c r="AG11" s="30"/>
@@ -11586,19 +11589,19 @@
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
       <c r="AG13" s="90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AH13" s="90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AI13" s="90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AJ13" s="90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AK13" s="91" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -11642,19 +11645,19 @@
     </row>
     <row r="15" spans="1:37" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U15" s="88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V15" s="88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W15" s="88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X15" s="88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Y15" s="89" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Z15" s="30"/>
       <c r="AF15" s="30"/>
@@ -11688,38 +11691,38 @@
       <c r="Z16" s="30"/>
       <c r="AF16" s="30"/>
       <c r="AG16" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AH16" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AI16" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AJ16" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AK16" s="91" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="8:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O17" s="29"/>
       <c r="Z17" s="30"/>
       <c r="AA17" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AB17" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AC17" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AD17" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AE17" s="87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AF17" s="30"/>
       <c r="AG17" s="73">
@@ -11743,24 +11746,24 @@
         <v>0</v>
       </c>
       <c r="AM17" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="8:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O18" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P18" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R18" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S18" s="82" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U18" s="30"/>
       <c r="V18" s="30"/>
@@ -11769,19 +11772,19 @@
       <c r="Y18" s="30"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AB18" s="88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AC18" s="88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AD18" s="88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AE18" s="89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF18" s="30"/>
       <c r="AG18" s="30"/>
@@ -11790,25 +11793,25 @@
       <c r="AJ18" s="30"/>
       <c r="AK18" s="30"/>
       <c r="AM18" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="8:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N19" s="77"/>
       <c r="O19" s="83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P19" s="83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R19" s="83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S19" s="84" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U19" s="30"/>
       <c r="V19" s="30"/>
@@ -11838,19 +11841,19 @@
       </c>
       <c r="AF19" s="30"/>
       <c r="AG19" s="90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH19" s="90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AI19" s="90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AJ19" s="90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AK19" s="91" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="8:39" x14ac:dyDescent="0.25">
@@ -11918,19 +11921,19 @@
     </row>
     <row r="22" spans="8:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U22" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V22" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W22" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X22" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Y22" s="91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
@@ -11940,19 +11943,19 @@
       <c r="AE22" s="30"/>
       <c r="AF22" s="30"/>
       <c r="AG22" s="90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AH22" s="90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AI22" s="90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AJ22" s="90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AK22" s="91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="8:39" x14ac:dyDescent="0.25">
@@ -12069,36 +12072,36 @@
       <c r="AE26" s="30"/>
       <c r="AF26" s="30"/>
       <c r="AG26" s="90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AH26" s="90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AI26" s="90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AJ26" s="90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AK26" s="91" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="8:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U27" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V27" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W27" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X27" s="90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Y27" s="91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Z27" s="30"/>
       <c r="AA27" s="30"/>
@@ -12166,19 +12169,19 @@
       <c r="Z29" s="30"/>
       <c r="AF29" s="30"/>
       <c r="AG29" s="90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH29" s="90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AI29" s="90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AJ29" s="90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AK29" s="91" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="8:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -12189,19 +12192,19 @@
       <c r="Y30" s="30"/>
       <c r="Z30" s="30"/>
       <c r="AA30" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AB30" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC30" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AD30" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AE30" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF30" s="30"/>
       <c r="AG30" s="73">
@@ -12225,40 +12228,40 @@
         <v>0</v>
       </c>
       <c r="AM30" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="8:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O31" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P31" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R31" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S31" s="82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z31" s="30"/>
       <c r="AA31" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB31" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC31" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD31" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE31" s="89" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF31" s="30"/>
       <c r="AG31" s="30"/>
@@ -12267,24 +12270,24 @@
       <c r="AJ31" s="30"/>
       <c r="AK31" s="30"/>
       <c r="AM31" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="8:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O32" s="83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P32" s="83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q32" s="83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R32" s="83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S32" s="84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z32" s="30"/>
       <c r="AA32" s="73">
@@ -12401,36 +12404,36 @@
       <c r="AE35" s="30"/>
       <c r="AF35" s="30"/>
       <c r="AG35" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AH35" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AI35" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AJ35" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK35" s="91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U36" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V36" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="W36" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="X36" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Y36" s="87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Z36" s="30"/>
       <c r="AF36" s="30"/>
@@ -12458,19 +12461,19 @@
     <row r="37" spans="1:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="79"/>
       <c r="U37" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V37" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W37" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X37" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Y37" s="89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z37" s="30"/>
       <c r="AF37" s="30"/>
@@ -12550,36 +12553,36 @@
       <c r="Z40" s="30"/>
       <c r="AF40" s="30"/>
       <c r="AG40" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AH40" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AI40" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AJ40" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK40" s="91" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AA41" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AB41" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC41" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AD41" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AE41" s="87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG41" s="73">
         <f>+Balance!D29</f>
@@ -12602,27 +12605,27 @@
         <v>0</v>
       </c>
       <c r="AM41" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AA42" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AB42" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AC42" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD42" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AE42" s="89" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM42" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -12647,19 +12650,19 @@
         <v>0</v>
       </c>
       <c r="AG43" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AH43" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AI43" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AJ43" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK43" s="91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
@@ -12686,36 +12689,36 @@
     </row>
     <row r="49" spans="8:19" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O49" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P49" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q49" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R49" s="86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S49" s="87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="8:19" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O50" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P50" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q50" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R50" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S50" s="89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="8:19" x14ac:dyDescent="0.25">
@@ -12767,19 +12770,19 @@
     </row>
     <row r="55" spans="8:19" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O55" s="90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P55" s="90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q55" s="90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R55" s="90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S55" s="91" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="8:19" x14ac:dyDescent="0.25">
